--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC06-0002</t>
+    <t xml:space="preserve">ATC06-0001</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-16</t>
@@ -366,15 +366,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,7 +398,7 @@
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,7 +415,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.44"/>
@@ -436,18 +436,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="36" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="12.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="55" style="1" width="2.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="62" style="1" width="2.67"/>
   </cols>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -184,10 +184,10 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC06-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">ATC06-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -366,15 +366,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,7 +398,7 @@
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,7 +415,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.44"/>
@@ -436,18 +436,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="36" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="10.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="55" style="1" width="2.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="62" style="1" width="2.67"/>
   </cols>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC06-0002</t>
+    <t xml:space="preserve">ATC06-0010</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-01</t>
@@ -398,7 +398,7 @@
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC06-0010</t>
+    <t xml:space="preserve">ATC06-0013</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-01</t>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC06-0013</t>
+    <t xml:space="preserve">ATC06-00145</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-01</t>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ATC06-00145</t>
+    <t xml:space="preserve">ATC06-0016</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-01</t>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF9B90-E51E-4779-B9EF-BCD0FF883EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0735166-401F-4691-B6E0-34E6E3092648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>creationDate</t>
   </si>
@@ -284,10 +284,10 @@
     <t>contractPartyLastName</t>
   </si>
   <si>
-    <t>contractNO</t>
-  </si>
-  <si>
-    <t>Auto2_</t>
+    <t>contractNo</t>
+  </si>
+  <si>
+    <t>Auto6_</t>
   </si>
 </sst>
 </file>
@@ -653,8 +653,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,7 +880,7 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto2_6</v>
+        <v>Auto6_6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>80</v>
@@ -999,9 +999,7 @@
       <c r="AT2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
-      <c r="AX2" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="AX2" s="3"/>
       <c r="AY2" s="2" t="s">
         <v>58</v>
       </c>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0735166-401F-4691-B6E0-34E6E3092648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C9701E-FE7B-464A-810C-3BB95877DD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,7 +287,7 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>Auto6_</t>
+    <t>Auto11_</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto6_6</v>
+        <v>Auto11_6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>80</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C9701E-FE7B-464A-810C-3BB95877DD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39568B9D-C49E-4409-936E-B8CF097270C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -278,16 +278,16 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
     <t>contractPartyLastName</t>
   </si>
   <si>
     <t>contractNo</t>
   </si>
   <si>
-    <t>Auto11_</t>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>Auto12_</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>17</v>
@@ -880,10 +880,10 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto11_6</v>
+        <v>Auto12_6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39568B9D-C49E-4409-936E-B8CF097270C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8294A6A8-163A-494C-9AD2-32C50758E24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <t>2023-10-01</t>
   </si>
   <si>
-    <t>Auto12_</t>
+    <t>Auto16_</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto12_6</v>
+        <v>Auto16_6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>82</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8294A6A8-163A-494C-9AD2-32C50758E24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAFBA8F-5036-4CC9-8B56-19C97002ED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -284,10 +284,10 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
-    <t>Auto16_</t>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>Auto17_</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto16_6</v>
+        <v>Auto17_6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>82</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAFBA8F-5036-4CC9-8B56-19C97002ED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781D17A-AFED-47B6-941C-03EF76E97713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <t>2023-10-16</t>
   </si>
   <si>
-    <t>Auto17_</t>
+    <t>Auto20_</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto17_6</v>
+        <v>Auto20_6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>82</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781D17A-AFED-47B6-941C-03EF76E97713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B6BBAB-8FE6-4598-BC81-1E63EAF36CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -284,10 +284,10 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>Auto20_</t>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>Auto24_</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto20_6</v>
+        <v>Auto24_6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>82</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B6BBAB-8FE6-4598-BC81-1E63EAF36CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C366916-9138-40DF-A9AE-240FE7A57CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -284,10 +284,10 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>Auto24_</t>
+    <t>Auto27_</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -657,58 +657,57 @@
       <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="43" width="9" style="1" customWidth="1"/>
     <col min="44" max="45" width="10" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" style="1" customWidth="1"/>
     <col min="47" max="47" width="10" style="1" customWidth="1"/>
-    <col min="48" max="48" width="12.77734375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="14.44140625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="11.6640625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="17.21875" style="1" customWidth="1"/>
-    <col min="52" max="52" width="18.44140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.21875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="8.77734375" style="1" customWidth="1"/>
-    <col min="55" max="59" width="2.6640625" style="1"/>
-    <col min="62" max="16384" width="2.6640625" style="1"/>
+    <col min="48" max="48" width="12.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" style="1" customWidth="1"/>
+    <col min="51" max="51" width="17.28515625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="18.42578125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="8.7109375" style="1" customWidth="1"/>
+    <col min="55" max="59" width="2.7109375" style="1"/>
+    <col min="62" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -877,13 +876,13 @@
       <c r="BF1" s="2"/>
       <c r="BG1" s="2"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto24_6</v>
+        <v>Auto27_6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -926,7 +925,7 @@
         <v>62</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>52</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C366916-9138-40DF-A9AE-240FE7A57CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33748DAF-0BB9-4AEE-B93C-3B4B81EDDCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -284,10 +284,10 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>Auto27_</t>
-  </si>
-  <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>Auto38_</t>
   </si>
 </sst>
 </file>
@@ -653,8 +653,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,10 +879,10 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto27_6</v>
+        <v>Auto38_6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -925,7 +925,7 @@
         <v>62</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>52</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33748DAF-0BB9-4AEE-B93C-3B4B81EDDCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C715D44C-2231-4714-9518-4F064EDB071D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,10 +284,10 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2024-01-02</t>
-  </si>
-  <si>
-    <t>Auto38_</t>
+    <t>Auto40_</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -354,9 +354,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,7 +394,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -500,7 +500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -642,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -879,10 +879,10 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto38_6</v>
+        <v>Auto40_6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -925,7 +925,7 @@
         <v>62</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>52</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFBAC71-E14F-4AFC-B1FC-9E3875860167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEEB232-B913-4E44-85F3-0938C3ED446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,10 +284,10 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>Auto45_</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>Auto60_</t>
   </si>
 </sst>
 </file>
@@ -354,9 +354,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,7 +394,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -500,7 +500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -642,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -879,10 +879,10 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto45_6</v>
+        <v>Auto60_6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -925,7 +925,7 @@
         <v>62</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>52</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEEB232-B913-4E44-85F3-0938C3ED446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39C0911-CC38-42C1-ABE9-19FB706732C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -284,10 +284,10 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>Auto60_</t>
+    <t>Auto71_</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -879,10 +879,10 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto60_6</v>
+        <v>Auto71_6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -925,7 +925,7 @@
         <v>62</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>52</v>

--- a/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
+++ b/Data Files/27 ตราสาร/Auto_GeStamp_TC06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39C0911-CC38-42C1-ABE9-19FB706732C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5A0FD-5F3E-4A94-B500-D06F517BEB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -284,10 +284,10 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>Auto71_</t>
-  </si>
-  <si>
-    <t>2024-07-01</t>
+    <t>Auto73_</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -879,7 +879,7 @@
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,S2,D2)</f>
-        <v>Auto71_6</v>
+        <v>Auto73_6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>83</v>
